--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_289.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_289.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,142 +488,149 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5111111111111111</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['C', 'F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(61.3, 70.46)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(19.78, 25.82)]</t>
+          <t>[('0:00:16.179070', '0:00:23.725555')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_95</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_268</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1018099547511312</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['D', 'E', 'E']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(13.52, 51.46)]</t>
+          <t>[['G', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(12.82, 52.64)]</t>
+          <t>[('0:00:05.346961', '0:00:13.218526')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:19.371814', '0:00:23.760385')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(10.94, 65.78)]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(11.06, 66.82)]</t>
+          <t>[('0:00:27.460000', '0:00:36.020000'), ('0:01:21.100000', '0:01:27.580000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:37.880000', '0:01:48.980000'), ('0:00:47.580000', '0:00:50.040000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -626,579 +638,534 @@
           <t>schubert-winterreise_112</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:maj/G', 'G:7', 'C:min'], ['C:min', 'G:7/D', 'C:min']]</t>
-        </is>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(12.7, 27.18), (56.44, 66.34), (0.36, 7.14)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(34.94, 36.86), (34.66, 36.26), (8.26, 12.96)]</t>
+          <t>[('0:00:08.260000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_277</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.14375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(16.72, 26.46)]</t>
+          <t>[['G/3', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(8.3, 14.36)]</t>
+          <t>[('0:00:32.920657', '0:00:39.410634')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1483870967741935</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.425</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(12.82, 19.18)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:01:57.680000', '0:01:59.480000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46), (1.36, 4.74)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02), (27.36, 34.92)]</t>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(94.06, 105.58)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(86.66, 96.12)]</t>
+          <t>[('0:01:57.680000', '0:01:59.480000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>isophonics_48</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(34.94, 36.86)]</t>
+          <t>[('0:01:22.290863', '0:01:30.185647')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2342342342342342</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min', 'F:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(11.12916, 21.12535)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(43.92, 55.66)]</t>
+          <t>[('0:00:19.260000', '0:00:22.260000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7556818181818181</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04), (49.4, 56.76), (1.44, 6.66)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(32.32, 33.88), (32.04, 33.42), (7.7, 12.06)]</t>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:27.600000', '0:00:54.260000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(43.68, 45.8)]</t>
+          <t>[('0:01:02.580000', '0:01:09.180000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:00.680000', '0:01:06.800000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min', 'C:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(2.58, 7.08)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(10.12, 27.18)]</t>
+          <t>[('0:00:16.880000', '0:01:00.840000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:12.820000', '0:00:52.640000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'E:7', 'A:maj', 'C#:7/G#', 'G:(3,5)', 'B:maj', 'G#:(3,5,b7,b9)', 'C#:min/F#', 'E:maj/F#', 'F#:7', 'B:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(113.14, 114.88)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(68.08, 87.32)]</t>
+          <t>[('0:00:00.320000', '0:00:40.640000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(10.88, 22.2)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.5, 5.58)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.600000', '0:00:40.540000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
